--- a/inrfa.xlsx
+++ b/inrfa.xlsx
@@ -145,6 +145,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -247,11 +248,11 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="25.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.56"/>

--- a/inrfa.xlsx
+++ b/inrfa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t xml:space="preserve">old_name</t>
   </si>
@@ -67,70 +67,67 @@
     <t xml:space="preserve">192.168.100.50</t>
   </si>
   <si>
+    <t xml:space="preserve">mise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.100.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gcom2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.100.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.100.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nagios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.100.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.100.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.100.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">old_database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.100.160</t>
+  </si>
+  <si>
     <t xml:space="preserve">manager</t>
   </si>
   <si>
-    <t xml:space="preserve">192.168.100.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.100.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gcom2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.100.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.100.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nagios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.100.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.100.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.100.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">old_database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.100.60</t>
+    <t xml:space="preserve">192.168.100.200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.100.99</t>
   </si>
   <si>
     <t xml:space="preserve">rproxy web</t>
   </si>
   <si>
     <t xml:space="preserve">192.168.100.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">radius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.100.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.100.200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">files</t>
   </si>
 </sst>
 </file>
@@ -249,10 +246,10 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="25.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.56"/>
@@ -328,7 +325,7 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -338,7 +335,7 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -386,10 +383,14 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>28</v>
@@ -406,28 +407,24 @@
         <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="1" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>35</v>
@@ -435,10 +432,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/inrfa.xlsx
+++ b/inrfa.xlsx
@@ -70,37 +70,37 @@
     <t xml:space="preserve">mise</t>
   </si>
   <si>
+    <t xml:space="preserve">192.168.100.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gcom2</t>
+  </si>
+  <si>
     <t xml:space="preserve">192.168.100.52</t>
   </si>
   <si>
-    <t xml:space="preserve">gcom2</t>
+    <t xml:space="preserve">web</t>
   </si>
   <si>
     <t xml:space="preserve">192.168.100.53</t>
   </si>
   <si>
-    <t xml:space="preserve">web</t>
+    <t xml:space="preserve">nagios</t>
   </si>
   <si>
     <t xml:space="preserve">192.168.100.54</t>
   </si>
   <si>
-    <t xml:space="preserve">nagios</t>
+    <t xml:space="preserve">backup</t>
   </si>
   <si>
     <t xml:space="preserve">192.168.100.55</t>
   </si>
   <si>
-    <t xml:space="preserve">backup</t>
+    <t xml:space="preserve">test</t>
   </si>
   <si>
     <t xml:space="preserve">192.168.100.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.100.57</t>
   </si>
   <si>
     <t xml:space="preserve">old_database</t>
@@ -246,10 +246,10 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="25.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.56"/>
